--- a/Parametros RETO POM.xlsx
+++ b/Parametros RETO POM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\IdeaProjects\RETO-POM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80366AB6-2E1F-4BAD-BEDE-E54431D995AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C405663-99CE-4473-A6D1-FB9F29B3FEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5565" yWindow="4095" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1ECA6579-FB4C-4EBA-9668-A6EA061B01D1}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>CAMISETA TITULAR SELECCIÓN COLOMBIA</t>
   </si>
   <si>
-    <t>GUAYOS X SPEEDPORTAL.1 CÉSPED NATURAL SECO</t>
+    <t>GUAYOS X SPEEDPORTAL.4 MULTITERRENO</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,17 +523,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
